--- a/2. Báo cáo-Bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/Danh Sách IMEI nhập kho/11.LÔ 1-2022/181122_1000TB_TG102LE-4G_A7670E(GD).xlsx
+++ b/2. Báo cáo-Bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/Danh Sách IMEI nhập kho/11.LÔ 1-2022/181122_1000TB_TG102LE-4G_A7670E(GD).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="13020" activeTab="18"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="13020" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -32,6 +32,11 @@
     <sheet name="18" sheetId="18" r:id="rId18"/>
     <sheet name="19" sheetId="19" r:id="rId19"/>
     <sheet name="20" sheetId="20" r:id="rId20"/>
+    <sheet name="21" sheetId="21" r:id="rId21"/>
+    <sheet name="22" sheetId="22" r:id="rId22"/>
+    <sheet name="23" sheetId="23" r:id="rId23"/>
+    <sheet name="24" sheetId="24" r:id="rId24"/>
+    <sheet name="25" sheetId="25" r:id="rId25"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -3068,17 +3073,268 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.140625" style="1" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>862205051156083</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>862205051206995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>862205051207761</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>862205051207753</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>862205051207704</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>862205051208256</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>862205051208181</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>862205051207647</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>861881054171336</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>862205051158402</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>862205051205211</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>862205051220442</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>862205051221127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>862205051222190</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>861881054166773</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>862205051227348</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>861881053428554</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>862205051222216</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>861881053429834</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>862205051224477</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>861881053429727</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>862205051225946</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>861881054170981</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>862205051208439</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>861881054168688</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>862205051150086</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>861881052587343</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>862205051149963</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>862205051223214</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>861881054163523</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>862205051203810</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>862205051207910</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>862205051208249</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>862205051208330</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>862205051158030</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>861881052578813</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>862205051220293</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>861881054164307</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>862205051221630</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>862205051225037</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>861881053432762</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>861881054163739</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>862205051219733</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>862205051207068</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>861881053427770</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>862205051219519</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>861881054167953</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>862205051158345</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>862205051202846</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>862205051207159</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -3354,10 +3610,1355 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>861881054171393</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>862205051155887</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>861881054171724</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>862205051221663</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>862205051151605</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>862205051155978</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>861881054165619</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>861881054160545</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>861881053429461</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>861881052578466</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>861881053429495</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>861881053427390</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>862205051208041</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>862205051152900</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>862205051224998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>861881054171591</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>862205051225102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>862205051222273</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>861881054169249</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>862205051206755</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>861881054161774</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>862205051224980</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>862205051224923</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>862205051225078</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>862205051206912</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>861881054166534</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>862205051150169</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>862205051224451</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>861881054171070</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>862205051225292</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>862205051208801</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>862205051207787</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>862205051152686</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>862205051201244</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>862205051228122</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>861881053441391</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>861881052593523</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>862205051221382</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>862205051227710</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>862205051205781</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>861881053428596</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>862205051160150</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>861881053432523</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>862205051220509</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>861881053435062</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>861881054171005</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>862205051206706</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>861881054160677</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>862205051223834</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>862205051150607</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>861881052576858</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>862205051160648</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>862205051159079</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>861881054164752</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>862205051149997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>861881053428695</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>862205051223065</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>861881054168423</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>862205051158022</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>862205051158931</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>861881053433042</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>861881054166104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>862205051150219</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>862205051158576</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>862205051224428</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>862205051150060</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>862205051155796</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>861881053436979</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>862205051223966</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>862205051159194</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>862205051205641</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>862205051220814</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>862205051205591</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>861881054164067</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>862205051208785</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>861881054166187</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>861881054172250</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>861881053432721</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>862205051150276</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>861881054170189</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>862205051227595</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>862205051224055</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>861881052590669</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>862205051205450</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>861881053429537</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>861881054166633</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>862205051150110</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>862205051150698</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>861881054171716</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>862205051160770</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>861881052578680</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>862205051203760</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>862205051155143</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>862205051222539</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>862205051222901</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>862205051205021</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>861881053432184</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>861881053433109</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>862205051228536</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>862205051206201</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>862205051203901</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>862205051225847</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>862205051155739</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>861881054165478</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>862205051220996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>861881052578581</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>861881053431475</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>861881054166864</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>862205051227280</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>861881053429701</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>861881053428703</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>861881052589166</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>861881054168704</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>862205051203141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>861881054169033</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>862205051158048</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>861881052589539</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>862205051209080</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>861881052585586</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>861881052585768</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>861881052590537</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>861881054167250</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>861881054168274</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>861881054169116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>861881052589588</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>861881054165999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>861881054162723</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>861881054162558</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>861881054169991</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>861881054167482</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>861881054168258</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>861881054166401</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>862205051227215</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>861881052589331</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>862205051226613</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>861881054164331</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>861881054168084</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>861881052582401</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>861881054165460</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>861881054165940</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>861881054166153</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>861881054169603</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>861881054162459</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>861881054162897</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>861881054162665</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>862205051151969</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>862205051207399</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>862205051228262</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>861881053429081</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>862205051159863</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>861881054169025</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>861881052578821</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>862205051222869</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>861881052587335</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>862205051206169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>861881054169447</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>862205051207225</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>862205051151290</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>862205051228395</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>861881054167854</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>862205051199695</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>862205051155358</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>861881052583268</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>862205051205559</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>862205051207829</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>861881054168605</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>862205051208496</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>862205051204826</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>862205051204156</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>862205051228478</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>861881054165585</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>861881054171666</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>862205051205377</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>862205051205500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>862205051155333</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>862205051202523</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>862205051204099</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>862205051220038</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>861881054171773</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>861881053434750</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>861881053428240</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>862205051220848</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>862205051228734</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>862205051220830</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>861881054170387</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>862205051203422</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>861881052574457</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>861881052583474</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>862205051222919</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>861881054163077</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>861881053427366</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>861881054170924</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>862205051155200</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>861881054160552</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>861881053433117</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>862205051228684</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>862205051220400</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>861881053427234</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>862205051221572</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>862205051152710</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>862205051222257</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>861881054168233</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>862205051203869</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>861881053428000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>862205051152538</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>861881053433331</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>861881054164505</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>861881053427580</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>862205051223453</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>861881052581437</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>862205051155267</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>861881052583656</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>861881054165122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>862205051221986</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>862205051220707</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>861881054160487</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>862205051150979</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>862205051204073</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>861881054171302</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>862205051222323</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>862205051204180</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>861881054160958</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>862205051202234</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>862205051223354</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>861881053435674</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>861881054162293</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>861881052581205</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>862205051204552</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>862205051226183</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>862205051204115</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>862205051208975</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>862205051219527</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>862205051225508</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>862205051160887</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>862205051209049</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>861881053437019</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>862205051150540</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>862205051204859</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>862205051152199</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>862205051152017</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>862205051160838</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>862205051202978</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>861881052573723</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>862205051223768</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>862205051208504</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>862205051208835</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>861881054171815</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>862205051159251</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>862205051224196</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>862205051226852</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
